--- a/ANEXO IV.xlsx
+++ b/ANEXO IV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipec\Desktop\PROJETO-WALTER-TEMPLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49ADF8B-41D3-4637-B406-54574B5A80E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D91FB1B-B18E-4B91-8254-BAFD69790E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="135">
   <si>
     <t>VLAN</t>
   </si>
@@ -374,9 +374,6 @@
     <t>PC-02</t>
   </si>
   <si>
-    <t>PC-03</t>
-  </si>
-  <si>
     <t>SRV-01</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>2001:DB8:0:20::/64</t>
   </si>
   <si>
-    <t>2001:DB8:0:30::/64</t>
-  </si>
-  <si>
     <t>2001:DB8:0:40::/64</t>
   </si>
   <si>
@@ -396,9 +390,6 @@
   </si>
   <si>
     <t>2001:DB8:0:20::14/64</t>
-  </si>
-  <si>
-    <t>2001:DB8:0:30::19/64</t>
   </si>
   <si>
     <t>2001:DB8:0:40::1E/64</t>
@@ -429,6 +420,15 @@
   </si>
   <si>
     <t>/30</t>
+  </si>
+  <si>
+    <t>SW-CORE2</t>
+  </si>
+  <si>
+    <t>SW-02</t>
+  </si>
+  <si>
+    <t>172.16.1.45</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +536,30 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF8EAADB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFC8C8C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFD965"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFA8D08D"/>
       </patternFill>
     </fill>
   </fills>
@@ -581,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,6 +731,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29263,10 +29299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29832,10 +29868,10 @@
         <v>114</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -29860,7 +29896,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>20</v>
       </c>
@@ -29868,10 +29904,10 @@
         <v>115</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -29896,18 +29932,18 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>30</v>
+    <row r="19" spans="1:26" ht="0.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>40</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>124</v>
+      <c r="C19" s="17" t="s">
+        <v>122</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>120</v>
+      <c r="D19" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -29932,18 +29968,18 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>40</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>117</v>
+      <c r="B20" s="14" t="s">
+        <v>116</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>125</v>
+      <c r="C20" s="14" t="s">
+        <v>122</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>121</v>
+      <c r="D20" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -29968,11 +30004,11 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -29996,8 +30032,8 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -30280,7 +30316,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -30305,38 +30341,38 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="32"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -30361,32 +30397,32 @@
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
@@ -57380,34 +57416,6 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="3"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="3"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="3"/>
-      <c r="O1000" s="3"/>
-      <c r="P1000" s="3"/>
-      <c r="Q1000" s="3"/>
-      <c r="R1000" s="3"/>
-      <c r="S1000" s="3"/>
-      <c r="T1000" s="3"/>
-      <c r="U1000" s="3"/>
-      <c r="V1000" s="3"/>
-      <c r="W1000" s="3"/>
-      <c r="X1000" s="3"/>
-      <c r="Y1000" s="3"/>
-      <c r="Z1000" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -57419,7 +57427,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57675,7 +57683,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -57764,14 +57772,62 @@
         <v>80</v>
       </c>
       <c r="F21" s="25">
-        <v>55255255248</v>
+        <v>255255255248</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="11">
+        <v>30</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="11">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -58755,10 +58811,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -58888,114 +58944,113 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B10" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A12" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="45">
         <v>10</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B14" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C14" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D14" s="45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46">
         <v>20</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B15" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C15" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D15" s="46" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="47">
         <v>30</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B16" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C16" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D16" s="48" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+    <row r="17" spans="1:4" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:4" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B18" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C18" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
@@ -59004,23 +59059,18 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -59997,7 +60047,6 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -60025,7 +60074,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>13</v>
@@ -60042,16 +60091,16 @@
         <v>68</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -60059,16 +60108,16 @@
         <v>76</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="E3" s="41" t="s">
         <v>131</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -60076,13 +60125,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -60090,13 +60139,13 @@
         <v>76</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E5" s="3"/>
     </row>
